--- a/src/Data.xlsx
+++ b/src/Data.xlsx
@@ -31,16 +31,16 @@
     <t>Current_Time</t>
   </si>
   <si>
-    <t>25</t>
+    <t>26</t>
+  </si>
+  <si>
+    <t>SAM</t>
   </si>
   <si>
     <t>ADAM</t>
   </si>
   <si>
-    <t>TOM</t>
-  </si>
-  <si>
-    <t>|| 18:57-EDT | 04/21/2023 ||</t>
+    <t>|| 21:30-EDT | 04/25/2023 ||</t>
   </si>
 </sst>
 </file>
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
